--- a/RUDN/Importance/Varible_muatal_class_in_Micronesia.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Micronesia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
@@ -328,216 +328,216 @@
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
   </si>
   <si>
     <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
     <t>Male population 25-29</t>
   </si>
   <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 19, male, interpolated</t>
+    <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 20-24, male (% of male population)</t>
+    <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
@@ -547,397 +547,394 @@
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>Female population 05-09</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Age population, age 07, female, interpolated</t>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
   </si>
   <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
   </si>
   <si>
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
   </si>
   <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Region_code</t>
-  </si>
-  <si>
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B309"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2695,7 +2692,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.6697987815941109</v>
+        <v>0.6774910892864185</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2703,7 +2700,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.6646705764659058</v>
+        <v>0.6774910892864185</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2783,7 +2780,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.6098170966124261</v>
+        <v>0.6171745895468419</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2791,7 +2788,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.6043540767263291</v>
+        <v>0.6171745895468419</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2799,7 +2796,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.6043540767263291</v>
+        <v>0.6098170966124261</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2839,7 +2836,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.583717768590021</v>
+        <v>0.5915335639058164</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2847,7 +2844,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.5827871820825112</v>
+        <v>0.583717768590021</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2879,7 +2876,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.5787130510853036</v>
+        <v>0.5731717974671267</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2911,7 +2908,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.5344221923713679</v>
+        <v>0.5600632180123934</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2919,7 +2916,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.5344221923713679</v>
+        <v>0.5472427051918807</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2927,7 +2924,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.5344221923713679</v>
+        <v>0.5376273205764961</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2951,7 +2948,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.5344221923713679</v>
+        <v>0.5257192500145793</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2959,7 +2956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.5344221923713679</v>
+        <v>0.5216016795508551</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2967,7 +2964,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.5257192500145793</v>
+        <v>0.5216016795508551</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2983,7 +2980,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.5216016795508551</v>
+        <v>0.5216016795508549</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2999,7 +2996,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.5119862949354705</v>
+        <v>0.510704243653419</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3015,7 +3012,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.5055760385252139</v>
+        <v>0.4978837308329063</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3023,7 +3020,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.5004020458512213</v>
+        <v>0.479874923401022</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3031,7 +3028,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.4914734744226499</v>
+        <v>0.479568712517888</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3039,7 +3036,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.482622176148275</v>
+        <v>0.4773108208369194</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3055,7 +3052,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.4773108208369194</v>
+        <v>0.4767298846790602</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3063,7 +3060,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.4747610202101957</v>
+        <v>0.4706086554809077</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3071,7 +3068,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.4706086554809077</v>
+        <v>0.4676954362215349</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3079,7 +3076,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.4703196282688036</v>
+        <v>0.4671145000636756</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3095,7 +3092,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.4576670031161787</v>
+        <v>0.4644903080164067</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3103,7 +3100,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.4569811505072492</v>
+        <v>0.4631448585940341</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3111,7 +3108,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.4388492823753809</v>
+        <v>0.4599397303889059</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3119,7 +3116,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.4342987047478801</v>
+        <v>0.4574991154482908</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3127,7 +3124,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.4332603200556493</v>
+        <v>0.4420544105805093</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3135,7 +3132,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.420530955403208</v>
+        <v>0.4401914231405986</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3143,7 +3140,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.420199449302471</v>
+        <v>0.4330199621229838</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3151,7 +3148,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.4125071416101633</v>
+        <v>0.4260287695548679</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3159,7 +3156,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.4073789364819582</v>
+        <v>0.4245168199659954</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3167,7 +3164,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.4048291358552345</v>
+        <v>0.420530955403208</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3175,7 +3172,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4003877439138426</v>
+        <v>0.4087210772471757</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3183,7 +3180,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3945584236614454</v>
+        <v>0.4073789364819582</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3191,7 +3188,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3945584236614454</v>
+        <v>0.4073789364819582</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3199,7 +3196,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.394558423661445</v>
+        <v>0.4073789364819582</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3207,7 +3204,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.3932129742390729</v>
+        <v>0.407378936481958</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3215,7 +3212,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.3885430714922471</v>
+        <v>0.407378936481958</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3223,7 +3220,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.3836609877640094</v>
+        <v>0.406798000324099</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3231,7 +3228,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.3817379108409324</v>
+        <v>0.3971826157087139</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3239,7 +3236,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3793383872875629</v>
+        <v>0.3945584236614454</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3247,7 +3244,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.379188110214209</v>
+        <v>0.3945584236614454</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3255,7 +3252,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.377951846477945</v>
+        <v>0.394558423661445</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3263,7 +3260,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.3771873332134317</v>
+        <v>0.3885430714922471</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3271,7 +3268,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.3750214435475421</v>
+        <v>0.3877494206985961</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3279,7 +3276,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.374228753331775</v>
+        <v>0.387624011919341</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3287,7 +3284,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.3676782525505047</v>
+        <v>0.3651313336574322</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3295,7 +3292,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.3622619807880791</v>
+        <v>0.3560968851999069</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3303,7 +3300,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.3580199621229838</v>
+        <v>0.3502675649475093</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3311,7 +3308,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.3548148339178554</v>
+        <v>0.349211569660745</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3319,7 +3316,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.3542338977599964</v>
+        <v>0.3434442600472818</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3327,7 +3324,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.3397922496645023</v>
+        <v>0.3374470521269965</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3335,7 +3332,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.3381777317038304</v>
+        <v>0.3370449969172493</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3367,7 +3364,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.3291117976378961</v>
+        <v>0.326777593380615</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3375,7 +3372,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.3191291520783275</v>
+        <v>0.3221368281629264</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3383,7 +3380,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3177216920170212</v>
+        <v>0.3155253840514827</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3391,7 +3388,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.3171173817973263</v>
+        <v>0.3139570805601017</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3399,7 +3396,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.3139570805601017</v>
+        <v>0.3094202712156002</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3407,7 +3404,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.3135440320701306</v>
+        <v>0.3014532382485673</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3415,7 +3412,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.3094202712156002</v>
+        <v>0.2925752572552018</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3423,7 +3420,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.3029514195544407</v>
+        <v>0.2906807842068828</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3431,7 +3428,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.3014829094320846</v>
+        <v>0.2871384931645915</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3439,7 +3436,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.3014532382485673</v>
+        <v>0.2816144232174449</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3447,7 +3444,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2824385990416207</v>
+        <v>0.2793416959447175</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3463,7 +3460,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2786558433357875</v>
+        <v>0.2785294739786495</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3471,7 +3468,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.276609705712727</v>
+        <v>0.2774620584881569</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3487,7 +3484,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2733549476502768</v>
+        <v>0.2698908903400659</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3495,7 +3492,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2701994493024704</v>
+        <v>0.2639990257943552</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3503,7 +3500,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2639990257943552</v>
+        <v>0.2630880777680225</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3511,7 +3508,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2636023071284055</v>
+        <v>0.2611393854347144</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3519,7 +3516,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2482810898841115</v>
+        <v>0.2610400189891942</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3527,7 +3524,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2438673412395937</v>
+        <v>0.2509792464284217</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3535,7 +3532,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2433393435962112</v>
+        <v>0.2444382446951123</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3543,7 +3540,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2395484763438056</v>
+        <v>0.241899437348613</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3551,7 +3548,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.2373836539866754</v>
+        <v>0.2395484763438056</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3559,7 +3556,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2344050087003382</v>
+        <v>0.2358740524770742</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3567,7 +3564,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2325019971819415</v>
+        <v>0.2344050087003382</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3583,7 +3580,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.2241152984106278</v>
+        <v>0.2273667478159234</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3591,7 +3588,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2236754604707898</v>
+        <v>0.2241152984106278</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3599,7 +3596,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2201192944146235</v>
+        <v>0.2209573452526743</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3607,7 +3604,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.2176273419226711</v>
+        <v>0.2202090550813074</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3615,7 +3612,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.1951498194451486</v>
+        <v>0.2176273419226711</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3623,7 +3620,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.1807010203809649</v>
+        <v>0.2125032992986284</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3631,7 +3628,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.1712639830593126</v>
+        <v>0.1975289574012098</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3639,7 +3636,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.1552827420780714</v>
+        <v>0.1712639830593126</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3647,7 +3644,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.1546459856720839</v>
+        <v>0.165357389652719</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3655,7 +3652,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.1536343904297197</v>
+        <v>0.1491514801775782</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3663,7 +3660,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.1473934091887383</v>
+        <v>0.1471172964126257</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3671,7 +3668,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.1471172964126257</v>
+        <v>0.1392571010524304</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3679,7 +3676,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.1182267425220715</v>
+        <v>0.1327552695505987</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3687,7 +3684,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.08841905021437957</v>
+        <v>0.1280710648663943</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3695,7 +3692,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.08433979613512554</v>
+        <v>0.123107972403302</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3703,7 +3700,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.08058937988470904</v>
+        <v>0.1200429818383111</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3711,7 +3708,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.07213394642927584</v>
+        <v>0.1033457901411197</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3719,7 +3716,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.06793397972930926</v>
+        <v>0.09041843971376906</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3727,7 +3724,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.06520476450009371</v>
+        <v>0.07213394642927584</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3735,7 +3732,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.05107167536700463</v>
+        <v>0.06793397972930926</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3743,7 +3740,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.04884334813867719</v>
+        <v>0.04990756170289123</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3751,7 +3748,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.02346039775572706</v>
+        <v>0.04946633626166563</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3759,15 +3756,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.01964615644148604</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B309">
-        <v>0.006123567918897566</v>
+        <v>0.03794452473985421</v>
       </c>
     </row>
   </sheetData>
